--- a/hhskb_doc/仕様/断面アクリル厚み設計.xlsx
+++ b/hhskb_doc/仕様/断面アクリル厚み設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>PCB</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,43 @@
     <rPh sb="1" eb="2">
       <t>カベ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10個</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21個</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.5mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.5mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.5mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18mm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -205,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -263,11 +300,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -276,43 +324,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:N13"/>
+  <dimension ref="B6:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,39 +686,42 @@
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -670,120 +730,123 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8">
+      <c r="F7" s="2"/>
+      <c r="G7" s="11">
         <f>SUM(C7:C13)</f>
         <v>14.5</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="8">
-        <f>SUM(I7:I13)</f>
+      <c r="K7" s="11">
+        <f>SUM(J7:J13)</f>
         <v>14.5</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="8">
-        <f>SUM(M7:M13)</f>
+      <c r="O7" s="11">
+        <f>SUM(N7:N13)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>1.5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <f>SUM(C9:C13)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1.5</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="5">
         <v>1.5</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>3.5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <f>SUM(C10:C12)</f>
-        <v>7</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="5">
         <v>3</v>
       </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,22 +854,26 @@
         <v>1.6</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="6">
+      <c r="E11" s="19"/>
+      <c r="F11" s="18">
+        <f>SUM(C11:C13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="6">
+      <c r="K11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="5">
         <v>2</v>
       </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,26 +881,27 @@
         <v>1.9</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="6" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="5">
         <v>2</v>
       </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -841,37 +909,66 @@
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="12" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="N7:N13"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="L10:L11"/>
+  <mergeCells count="11">
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="K7:K13"/>
+    <mergeCell ref="O7:O13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
